--- a/src/test/resources/eBotTestData.xlsx
+++ b/src/test/resources/eBotTestData.xlsx
@@ -3,18 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BE3843DD-D8D2-4780-8C45-55A7778C0090}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PD\Documents\GitHub\Bot7-Test\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8854A30-5EBA-4FEC-871A-D95B69424F67}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="14700" windowHeight="11730" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19680" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Quotes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Test NameAuther</t>
   </si>
@@ -74,35 +77,13 @@
   </si>
   <si>
     <t>Validation Fail</t>
-  </si>
-  <si>
-    <t>Gideon: Joseph Conrad said, “The belief in a supernatural source of evil is not necessary.  Men alone are quite capable of every wickedness.”</t>
-  </si>
-  <si>
-    <t>Gideon: Emerson said, “All is riddle, and the key to a riddle is another riddle.”</t>
-  </si>
-  <si>
-    <t>Gideon: Winston Churchill said, “The farther backward you can look, the farther forward you will see.”</t>
-  </si>
-  <si>
-    <t>Gideon: Nietzsche once said, “When you look long into an abyss, the abyss looks into you.”</t>
-  </si>
-  <si>
-    <t>Gideon: Faulkner once said, “Don’t bother just to be better than your contemporaries or predecessors.  Try to be better than yourself.”</t>
-  </si>
-  <si>
-    <t>Quotes</t>
-  </si>
-  <si>
-    <t>Validation Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,14 +93,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -145,12 +118,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,21 +403,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="55.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="55.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -458,11 +430,8 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -472,11 +441,8 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -489,11 +455,8 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="4" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -506,11 +469,8 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -522,44 +482,10 @@
       </c>
       <c r="D5" t="s">
         <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED87DF8-8958-4FFD-9118-8FA991E93BC2}">
-  <dimension ref="A1:A9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="47.28515625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
 </file>